--- a/refs/heads/rc2/StructureDefinition-svc-practitioner-role.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-practitioner-role.xlsx
@@ -442,7 +442,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner)
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
